--- a/gestion/Caso I(1).xlsx
+++ b/gestion/Caso I(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\segundo\gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789598D8-312E-4FE0-A1DC-F1B64AC06B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628AC8E5-E79B-4277-B518-53396906D8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{340967FD-790C-4F51-B108-6173DBD85FBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="3" xr2:uid="{340967FD-790C-4F51-B108-6173DBD85FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Enunciado" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="80">
   <si>
     <t>Año 1</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>3.      Realizar un análisis de sensibilidad sobre las ventas del año 3 viendo hasta que nivel pueden llegar para que el proyecto siga siendo efectuable.</t>
+  </si>
+  <si>
+    <t>Ingresos año 1</t>
+  </si>
+  <si>
+    <t>Mano de obra año 1</t>
   </si>
 </sst>
 </file>
@@ -336,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +382,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,28 +469,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,12 +500,20 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB94F44-0EF5-4BFF-8E00-9F1497ADBDAC}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -1569,7 +1596,7 @@
       <c r="I12" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" t="s">
         <v>48</v>
       </c>
       <c r="L12">
@@ -1603,31 +1630,31 @@
       <c r="I13" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" t="s">
         <v>53</v>
       </c>
       <c r="L13">
-        <f>C19</f>
+        <f t="shared" ref="L13:Q13" si="7">C19</f>
         <v>10</v>
       </c>
       <c r="M13">
-        <f>D19</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="N13">
-        <f>E19</f>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="O13">
-        <f>F19</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="P13">
-        <f>G19</f>
+        <f t="shared" si="7"/>
         <v>-9</v>
       </c>
       <c r="Q13">
-        <f>H19</f>
+        <f t="shared" si="7"/>
         <v>-93</v>
       </c>
     </row>
@@ -1635,7 +1662,7 @@
       <c r="I14" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" t="s">
         <v>54</v>
       </c>
       <c r="K14">
@@ -1672,35 +1699,35 @@
       <c r="I15" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="5">
-        <f>K12-K13+K14</f>
+      <c r="K15" s="3">
+        <f t="shared" ref="K15:Q15" si="8">K12-K13+K14</f>
         <v>-540</v>
       </c>
-      <c r="L15" s="5">
-        <f>L12-L13+L14</f>
+      <c r="L15" s="3">
+        <f t="shared" si="8"/>
         <v>-20</v>
       </c>
-      <c r="M15" s="5">
-        <f>M12-M13+M14</f>
+      <c r="M15" s="3">
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
-      <c r="N15" s="5">
-        <f>N12-N13+N14</f>
+      <c r="N15" s="3">
+        <f t="shared" si="8"/>
         <v>167.5</v>
       </c>
-      <c r="O15" s="5">
-        <f>O12-O13+O14</f>
+      <c r="O15" s="3">
+        <f t="shared" si="8"/>
         <v>224</v>
       </c>
-      <c r="P15" s="5">
-        <f>P12-P13+P14</f>
+      <c r="P15" s="3">
+        <f t="shared" si="8"/>
         <v>216.5</v>
       </c>
-      <c r="Q15" s="5">
-        <f>Q12-Q13+Q14</f>
+      <c r="Q15" s="3">
+        <f t="shared" si="8"/>
         <v>293</v>
       </c>
     </row>
@@ -1765,23 +1792,23 @@
         <v>-560</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:Q17" si="7">L17+M15</f>
+        <f t="shared" ref="M17:Q17" si="9">L17+M15</f>
         <v>-505</v>
       </c>
       <c r="N17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-337.5</v>
       </c>
-      <c r="O17" s="6">
-        <f t="shared" si="7"/>
+      <c r="O17" s="4">
+        <f t="shared" si="9"/>
         <v>-113.5</v>
       </c>
       <c r="P17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>103</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>396</v>
       </c>
     </row>
@@ -1815,27 +1842,27 @@
         <v>52</v>
       </c>
       <c r="C19">
-        <f>C18-B18</f>
+        <f t="shared" ref="C19:H19" si="10">C18-B18</f>
         <v>10</v>
       </c>
       <c r="D19">
-        <f>D18-C18</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="E19">
-        <f>E18-D18</f>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="F19">
-        <f>F18-E18</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="G19">
-        <f>G18-F18</f>
+        <f t="shared" si="10"/>
         <v>-9</v>
       </c>
       <c r="H19">
-        <f>H18-G18</f>
+        <f t="shared" si="10"/>
         <v>-93</v>
       </c>
       <c r="J19" t="s">
@@ -1850,7 +1877,7 @@
       <c r="J20" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="5">
         <f>NPV(B13,L15:Q15)+K15</f>
         <v>91.38822787448396</v>
       </c>
@@ -1863,7 +1890,7 @@
       <c r="J21" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <f>IRR(K15:Q15)</f>
         <v>0.12863084137941239</v>
       </c>
@@ -2028,7 +2055,7 @@
   </sheetPr>
   <dimension ref="B1:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2041,190 +2068,190 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="22" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="16">
         <v>60</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="16">
         <v>30</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="16">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="16">
         <v>240</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="16">
         <v>200</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="16">
         <v>300</v>
       </c>
     </row>
     <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="16">
         <v>420</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="16">
         <v>300</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="16">
         <v>450</v>
       </c>
     </row>
     <row r="9" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="16">
         <v>460</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="16">
         <v>320</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="16">
         <v>500</v>
       </c>
     </row>
     <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="16">
         <v>420</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="16">
         <v>350</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="16">
         <v>600</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>4.5242494226327903</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12">
         <v>6.2252559726962504</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12">
         <v>4.0347551342812</v>
       </c>
     </row>
     <row r="13" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="5">
         <v>91.388227874484002</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="5">
         <v>-126.34467980231901</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="5">
         <v>264.49370561094298</v>
       </c>
     </row>
     <row r="14" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="6">
         <v>0.128630841379412</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="6">
         <v>3.3199634256567197E-2</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="6">
         <v>0.194826109015174</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2238,7 +2265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D2249D-9BC2-495C-93A6-9F9989350076}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -2707,7 +2734,7 @@
       <c r="I12" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" t="s">
         <v>48</v>
       </c>
       <c r="L12">
@@ -2741,31 +2768,31 @@
       <c r="I13" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" t="s">
         <v>53</v>
       </c>
       <c r="L13">
-        <f>C19</f>
+        <f t="shared" ref="L13:Q13" si="3">C19</f>
         <v>10</v>
       </c>
       <c r="M13">
-        <f>D19</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="N13">
-        <f>E19</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="O13">
-        <f>F19</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="P13">
-        <f>G19</f>
+        <f t="shared" si="3"/>
         <v>-9</v>
       </c>
       <c r="Q13">
-        <f>H19</f>
+        <f t="shared" si="3"/>
         <v>-93</v>
       </c>
     </row>
@@ -2773,7 +2800,7 @@
       <c r="I14" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" t="s">
         <v>54</v>
       </c>
       <c r="K14">
@@ -2810,35 +2837,35 @@
       <c r="I15" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="5">
-        <f>K12-K13+K14</f>
+      <c r="K15" s="3">
+        <f t="shared" ref="K15:Q15" si="4">K12-K13+K14</f>
         <v>-540</v>
       </c>
-      <c r="L15" s="5">
-        <f>L12-L13+L14</f>
+      <c r="L15" s="3">
+        <f t="shared" si="4"/>
         <v>-50</v>
       </c>
-      <c r="M15" s="5">
-        <f>M12-M13+M14</f>
+      <c r="M15" s="3">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="N15" s="5">
-        <f>N12-N13+N14</f>
+      <c r="N15" s="3">
+        <f t="shared" si="4"/>
         <v>192.5</v>
       </c>
-      <c r="O15" s="5">
-        <f>O12-O13+O14</f>
+      <c r="O15" s="3">
+        <f t="shared" si="4"/>
         <v>224</v>
       </c>
-      <c r="P15" s="5">
-        <f>P12-P13+P14</f>
+      <c r="P15" s="3">
+        <f t="shared" si="4"/>
         <v>216.5</v>
       </c>
-      <c r="Q15" s="5">
-        <f>Q12-Q13+Q14</f>
+      <c r="Q15" s="3">
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
     </row>
@@ -2903,23 +2930,23 @@
         <v>-590</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:Q17" si="3">L17+M15</f>
+        <f t="shared" ref="M17:Q17" si="5">L17+M15</f>
         <v>-530</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-337.5</v>
       </c>
-      <c r="O17" s="6">
-        <f t="shared" si="3"/>
+      <c r="O17" s="4">
+        <f t="shared" si="5"/>
         <v>-113.5</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>396</v>
       </c>
     </row>
@@ -2953,27 +2980,27 @@
         <v>52</v>
       </c>
       <c r="C19">
-        <f>C18-B18</f>
+        <f t="shared" ref="C19:H19" si="6">C18-B18</f>
         <v>10</v>
       </c>
       <c r="D19">
-        <f>D18-C18</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="E19">
-        <f>E18-D18</f>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="F19">
-        <f>F18-E18</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="G19">
-        <f>G18-F18</f>
+        <f t="shared" si="6"/>
         <v>-9</v>
       </c>
       <c r="H19">
-        <f>H18-G18</f>
+        <f t="shared" si="6"/>
         <v>-93</v>
       </c>
       <c r="J19" t="s">
@@ -2988,7 +3015,7 @@
       <c r="J20" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="5">
         <f>NPV(B13,L15:Q15)+K15</f>
         <v>87.378279062526872</v>
       </c>
@@ -3001,7 +3028,7 @@
       <c r="J21" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <f>IRR(K15:Q15)</f>
         <v>0.12621531290950938</v>
       </c>
@@ -3118,7 +3145,7 @@
       <c r="C3">
         <v>240</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="18">
         <v>257.73340649294204</v>
       </c>
       <c r="E3">
@@ -3165,7 +3192,7 @@
       <c r="C4">
         <v>70</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4">
         <v>84</v>
       </c>
       <c r="E4">
@@ -3212,7 +3239,7 @@
       <c r="C5">
         <v>60</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5">
         <v>72</v>
       </c>
       <c r="E5">
@@ -3259,7 +3286,7 @@
       <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6">
         <v>10</v>
       </c>
       <c r="E6">
@@ -3305,7 +3332,6 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="24"/>
       <c r="I7" t="s">
         <v>40</v>
       </c>
@@ -3491,7 +3517,7 @@
       <c r="I12" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" t="s">
         <v>48</v>
       </c>
       <c r="L12">
@@ -3525,31 +3551,31 @@
       <c r="I13" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" t="s">
         <v>53</v>
       </c>
       <c r="L13">
-        <f>C19</f>
+        <f t="shared" ref="L13:Q13" si="3">C19</f>
         <v>10</v>
       </c>
       <c r="M13">
-        <f>D19</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="N13">
-        <f>E19</f>
+        <f t="shared" si="3"/>
         <v>2.4333516232355095</v>
       </c>
       <c r="O13">
-        <f>F19</f>
+        <f t="shared" si="3"/>
         <v>49.566648376764491</v>
       </c>
       <c r="P13">
-        <f>G19</f>
+        <f t="shared" si="3"/>
         <v>-9</v>
       </c>
       <c r="Q13">
-        <f>H19</f>
+        <f t="shared" si="3"/>
         <v>-93</v>
       </c>
     </row>
@@ -3557,7 +3583,7 @@
       <c r="I14" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" t="s">
         <v>54</v>
       </c>
       <c r="K14">
@@ -3594,35 +3620,35 @@
       <c r="I15" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="5">
-        <f>K12-K13+K14</f>
+      <c r="K15" s="3">
+        <f t="shared" ref="K15:Q15" si="4">K12-K13+K14</f>
         <v>-540</v>
       </c>
-      <c r="L15" s="5">
-        <f>L12-L13+L14</f>
+      <c r="L15" s="3">
+        <f t="shared" si="4"/>
         <v>-20</v>
       </c>
-      <c r="M15" s="5">
-        <f>M12-M13+M14</f>
+      <c r="M15" s="3">
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="N15" s="5">
-        <f>N12-N13+N14</f>
+      <c r="N15" s="3">
+        <f t="shared" si="4"/>
         <v>86.366703246471019</v>
       </c>
-      <c r="O15" s="5">
-        <f>O12-O13+O14</f>
+      <c r="O15" s="3">
+        <f t="shared" si="4"/>
         <v>183.43335162323552</v>
       </c>
-      <c r="P15" s="5">
-        <f>P12-P13+P14</f>
+      <c r="P15" s="3">
+        <f t="shared" si="4"/>
         <v>216.5</v>
       </c>
-      <c r="Q15" s="5">
-        <f>Q12-Q13+Q14</f>
+      <c r="Q15" s="3">
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
     </row>
@@ -3687,23 +3713,23 @@
         <v>-560</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:Q17" si="3">L17+M15</f>
+        <f t="shared" ref="M17:Q17" si="5">L17+M15</f>
         <v>-505</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-418.63329675352895</v>
       </c>
-      <c r="O17" s="6">
-        <f t="shared" si="3"/>
+      <c r="O17" s="4">
+        <f t="shared" si="5"/>
         <v>-235.19994513029343</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-18.699945130293429</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>274.30005486970657</v>
       </c>
     </row>
@@ -3737,27 +3763,27 @@
         <v>52</v>
       </c>
       <c r="C19">
-        <f>C18-B18</f>
+        <f t="shared" ref="C19:H19" si="6">C18-B18</f>
         <v>10</v>
       </c>
       <c r="D19">
-        <f>D18-C18</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="E19">
-        <f>E18-D18</f>
+        <f t="shared" si="6"/>
         <v>2.4333516232355095</v>
       </c>
       <c r="F19">
-        <f>F18-E18</f>
+        <f t="shared" si="6"/>
         <v>49.566648376764491</v>
       </c>
       <c r="G19">
-        <f>G18-F18</f>
+        <f t="shared" si="6"/>
         <v>-9</v>
       </c>
       <c r="H19">
-        <f>H18-G18</f>
+        <f t="shared" si="6"/>
         <v>-93</v>
       </c>
       <c r="J19" t="s">
@@ -3772,7 +3798,7 @@
       <c r="J20" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="5">
         <f>NPV(B13,L15:Q15)+K15</f>
         <v>0</v>
       </c>
@@ -3785,7 +3811,7 @@
       <c r="J21" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <f>IRR(K15:Q15)</f>
         <v>8.9999999999988534E-2</v>
       </c>
@@ -3946,7 +3972,7 @@
       <c r="B4">
         <v>60</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="18">
         <v>5.2666666666665769</v>
       </c>
       <c r="D4">
@@ -4274,7 +4300,7 @@
       <c r="I12" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" t="s">
         <v>48</v>
       </c>
       <c r="L12">
@@ -4308,31 +4334,31 @@
       <c r="I13" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" t="s">
         <v>53</v>
       </c>
       <c r="L13">
-        <f>C19</f>
+        <f t="shared" ref="L13:Q13" si="3">C19</f>
         <v>10</v>
       </c>
       <c r="M13">
-        <f>D19</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="N13">
-        <f>E19</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="O13">
-        <f>F19</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="P13">
-        <f>G19</f>
+        <f t="shared" si="3"/>
         <v>-9</v>
       </c>
       <c r="Q13">
-        <f>H19</f>
+        <f t="shared" si="3"/>
         <v>-93</v>
       </c>
     </row>
@@ -4340,7 +4366,7 @@
       <c r="I14" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" t="s">
         <v>54</v>
       </c>
       <c r="K14">
@@ -4377,35 +4403,35 @@
       <c r="I15" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="5">
-        <f>K12-K13+K14</f>
+      <c r="K15" s="3">
+        <f t="shared" ref="K15:Q15" si="4">K12-K13+K14</f>
         <v>-540</v>
       </c>
-      <c r="L15" s="5">
-        <f>L12-L13+L14</f>
+      <c r="L15" s="3">
+        <f t="shared" si="4"/>
         <v>-20</v>
       </c>
-      <c r="M15" s="5">
-        <f>M12-M13+M14</f>
+      <c r="M15" s="3">
+        <f t="shared" si="4"/>
         <v>103.55000000000007</v>
       </c>
-      <c r="N15" s="5">
-        <f>N12-N13+N14</f>
+      <c r="N15" s="3">
+        <f t="shared" si="4"/>
         <v>167.5</v>
       </c>
-      <c r="O15" s="5">
-        <f>O12-O13+O14</f>
+      <c r="O15" s="3">
+        <f t="shared" si="4"/>
         <v>224</v>
       </c>
-      <c r="P15" s="5">
-        <f>P12-P13+P14</f>
+      <c r="P15" s="3">
+        <f t="shared" si="4"/>
         <v>216.5</v>
       </c>
-      <c r="Q15" s="5">
-        <f>Q12-Q13+Q14</f>
+      <c r="Q15" s="3">
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
     </row>
@@ -4470,23 +4496,23 @@
         <v>-560</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:Q17" si="3">L17+M15</f>
+        <f t="shared" ref="M17:Q17" si="5">L17+M15</f>
         <v>-456.44999999999993</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-288.94999999999993</v>
       </c>
-      <c r="O17" s="6">
-        <f t="shared" si="3"/>
+      <c r="O17" s="4">
+        <f t="shared" si="5"/>
         <v>-64.949999999999932</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>151.55000000000007</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>444.55000000000007</v>
       </c>
     </row>
@@ -4520,27 +4546,27 @@
         <v>52</v>
       </c>
       <c r="C19">
-        <f>C18-B18</f>
+        <f t="shared" ref="C19:H19" si="6">C18-B18</f>
         <v>10</v>
       </c>
       <c r="D19">
-        <f>D18-C18</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="E19">
-        <f>E18-D18</f>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="F19">
-        <f>F18-E18</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="G19">
-        <f>G18-F18</f>
+        <f t="shared" si="6"/>
         <v>-9</v>
       </c>
       <c r="H19">
-        <f>H18-G18</f>
+        <f t="shared" si="6"/>
         <v>-93</v>
       </c>
       <c r="J19" t="s">
@@ -4555,7 +4581,7 @@
       <c r="J20" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="5">
         <f>NPV(B13,L15:Q15)+K15</f>
         <v>132.25179154757552</v>
       </c>
@@ -4568,7 +4594,7 @@
       <c r="J21" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <f>IRR(K15:Q15)</f>
         <v>0.14671047768233758</v>
       </c>
@@ -4584,15 +4610,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C850525-8DBD-4F28-A41B-B642A8D3557B}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
     <col min="10" max="10" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4679,7 +4706,7 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="22">
         <v>60</v>
       </c>
       <c r="C3">
@@ -4726,7 +4753,7 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="19">
         <v>60</v>
       </c>
       <c r="C4">
@@ -5057,7 +5084,7 @@
       <c r="I12" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" t="s">
         <v>48</v>
       </c>
       <c r="L12">
@@ -5091,31 +5118,31 @@
       <c r="I13" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" t="s">
         <v>53</v>
       </c>
       <c r="L13">
-        <f>C19</f>
+        <f t="shared" ref="L13:Q13" si="3">C19</f>
         <v>10</v>
       </c>
       <c r="M13">
-        <f>D19</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="N13">
-        <f>E19</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="O13">
-        <f>F19</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="P13">
-        <f>G19</f>
+        <f t="shared" si="3"/>
         <v>-9</v>
       </c>
       <c r="Q13">
-        <f>H19</f>
+        <f t="shared" si="3"/>
         <v>-93</v>
       </c>
     </row>
@@ -5123,7 +5150,7 @@
       <c r="I14" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" t="s">
         <v>54</v>
       </c>
       <c r="K14">
@@ -5160,35 +5187,35 @@
       <c r="I15" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="5">
-        <f>K12-K13+K14</f>
+      <c r="K15" s="3">
+        <f t="shared" ref="K15:Q15" si="4">K12-K13+K14</f>
         <v>-540</v>
       </c>
-      <c r="L15" s="5">
-        <f>L12-L13+L14</f>
+      <c r="L15" s="3">
+        <f t="shared" si="4"/>
         <v>-20</v>
       </c>
-      <c r="M15" s="5">
-        <f>M12-M13+M14</f>
+      <c r="M15" s="3">
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="N15" s="5">
-        <f>N12-N13+N14</f>
+      <c r="N15" s="3">
+        <f t="shared" si="4"/>
         <v>167.5</v>
       </c>
-      <c r="O15" s="5">
-        <f>O12-O13+O14</f>
+      <c r="O15" s="3">
+        <f t="shared" si="4"/>
         <v>224</v>
       </c>
-      <c r="P15" s="5">
-        <f>P12-P13+P14</f>
+      <c r="P15" s="3">
+        <f t="shared" si="4"/>
         <v>216.5</v>
       </c>
-      <c r="Q15" s="5">
-        <f>Q12-Q13+Q14</f>
+      <c r="Q15" s="3">
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
     </row>
@@ -5217,7 +5244,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -5253,27 +5280,27 @@
         <v>-560</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:Q17" si="3">L17+M15</f>
+        <f t="shared" ref="M17:Q17" si="5">L17+M15</f>
         <v>-505</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-337.5</v>
       </c>
-      <c r="O17" s="6">
-        <f t="shared" si="3"/>
+      <c r="O17" s="4">
+        <f t="shared" si="5"/>
         <v>-113.5</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>396</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -5298,32 +5325,32 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
       <c r="C19">
-        <f>C18-B18</f>
+        <f t="shared" ref="C19:H19" si="6">C18-B18</f>
         <v>10</v>
       </c>
       <c r="D19">
-        <f>D18-C18</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="E19">
-        <f>E18-D18</f>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="F19">
-        <f>F18-E18</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="G19">
-        <f>G18-F18</f>
+        <f t="shared" si="6"/>
         <v>-9</v>
       </c>
       <c r="H19">
-        <f>H18-G18</f>
+        <f t="shared" si="6"/>
         <v>-93</v>
       </c>
       <c r="J19" t="s">
@@ -5334,11 +5361,11 @@
         <v>4.5242494226327947</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J20" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="5">
         <f>NPV(B13,L15:Q15)+K15</f>
         <v>91.38822787448396</v>
       </c>
@@ -5347,17 +5374,352 @@
         <v>Efectuable</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J21" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <f>IRR(K15:Q15)</f>
         <v>0.12863084137941239</v>
       </c>
       <c r="L21" t="str">
         <f>IF(K21&gt;0,"Efectuable","No efectuable")</f>
         <v>Efectuable</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K26" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J27" s="25">
+        <f>K20</f>
+        <v>91.38822787448396</v>
+      </c>
+      <c r="K27" s="20">
+        <v>40</v>
+      </c>
+      <c r="L27" s="20">
+        <v>45</v>
+      </c>
+      <c r="M27" s="20">
+        <v>50</v>
+      </c>
+      <c r="N27" s="20">
+        <v>55</v>
+      </c>
+      <c r="O27" s="24">
+        <v>60</v>
+      </c>
+      <c r="P27" s="20">
+        <v>65</v>
+      </c>
+      <c r="Q27" s="20">
+        <v>70</v>
+      </c>
+      <c r="R27" s="20">
+        <v>75</v>
+      </c>
+      <c r="S27" s="20">
+        <v>80</v>
+      </c>
+      <c r="T27" s="20">
+        <v>85</v>
+      </c>
+      <c r="U27" s="20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="20">
+        <v>20</v>
+      </c>
+      <c r="K28" s="20">
+        <f t="dataTable" ref="K28:U34" dt2D="1" dtr="1" r1="B3" r2="B4"/>
+        <v>105.52845176136213</v>
+      </c>
+      <c r="L28" s="20">
+        <v>108.87412973459675</v>
+      </c>
+      <c r="M28" s="20">
+        <v>112.21980770783136</v>
+      </c>
+      <c r="N28" s="20">
+        <v>115.56548568106598</v>
+      </c>
+      <c r="O28" s="20">
+        <v>118.91116365430048</v>
+      </c>
+      <c r="P28" s="20">
+        <v>122.25684162753498</v>
+      </c>
+      <c r="Q28" s="20">
+        <v>125.6025196007696</v>
+      </c>
+      <c r="R28" s="20">
+        <v>128.94819757400421</v>
+      </c>
+      <c r="S28" s="20">
+        <v>132.29387554723883</v>
+      </c>
+      <c r="T28" s="20">
+        <v>135.63955352047344</v>
+      </c>
+      <c r="U28" s="20">
+        <v>138.98523149370794</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I29" s="19"/>
+      <c r="J29" s="20">
+        <v>40</v>
+      </c>
+      <c r="K29" s="20">
+        <v>91.766983871453931</v>
+      </c>
+      <c r="L29" s="20">
+        <v>95.112661844688432</v>
+      </c>
+      <c r="M29" s="20">
+        <v>98.458339817923047</v>
+      </c>
+      <c r="N29" s="20">
+        <v>101.80401779115766</v>
+      </c>
+      <c r="O29" s="20">
+        <v>105.14969576439228</v>
+      </c>
+      <c r="P29" s="20">
+        <v>108.49537373762678</v>
+      </c>
+      <c r="Q29" s="20">
+        <v>111.84105171086139</v>
+      </c>
+      <c r="R29" s="20">
+        <v>115.18672968409601</v>
+      </c>
+      <c r="S29" s="20">
+        <v>118.53240765733051</v>
+      </c>
+      <c r="T29" s="20">
+        <v>121.87808563056512</v>
+      </c>
+      <c r="U29" s="20">
+        <v>125.22376360379963</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I30" s="19"/>
+      <c r="J30" s="24">
+        <v>60</v>
+      </c>
+      <c r="K30" s="20">
+        <v>78.005515981545727</v>
+      </c>
+      <c r="L30" s="20">
+        <v>81.351193954780229</v>
+      </c>
+      <c r="M30" s="20">
+        <v>84.696871928014843</v>
+      </c>
+      <c r="N30" s="20">
+        <v>88.042549901249458</v>
+      </c>
+      <c r="O30" s="24">
+        <v>91.38822787448396</v>
+      </c>
+      <c r="P30" s="20">
+        <v>94.733905847718574</v>
+      </c>
+      <c r="Q30" s="20">
+        <v>98.079583820953076</v>
+      </c>
+      <c r="R30" s="20">
+        <v>101.42526179418769</v>
+      </c>
+      <c r="S30" s="20">
+        <v>104.77093976742231</v>
+      </c>
+      <c r="T30" s="20">
+        <v>108.11661774065692</v>
+      </c>
+      <c r="U30" s="20">
+        <v>111.46229571389142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I31" s="19"/>
+      <c r="J31" s="20">
+        <v>80</v>
+      </c>
+      <c r="K31" s="20">
+        <v>64.244048091637524</v>
+      </c>
+      <c r="L31" s="20">
+        <v>67.589726064871911</v>
+      </c>
+      <c r="M31" s="20">
+        <v>70.935404038106526</v>
+      </c>
+      <c r="N31" s="20">
+        <v>74.281082011341141</v>
+      </c>
+      <c r="O31" s="20">
+        <v>77.626759984575756</v>
+      </c>
+      <c r="P31" s="20">
+        <v>80.972437957810371</v>
+      </c>
+      <c r="Q31" s="20">
+        <v>84.318115931044872</v>
+      </c>
+      <c r="R31" s="20">
+        <v>87.663793904279487</v>
+      </c>
+      <c r="S31" s="20">
+        <v>91.009471877513988</v>
+      </c>
+      <c r="T31" s="20">
+        <v>94.355149850748603</v>
+      </c>
+      <c r="U31" s="20">
+        <v>97.700827823983218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I32" s="19"/>
+      <c r="J32" s="20">
+        <v>100</v>
+      </c>
+      <c r="K32" s="20">
+        <v>50.482580201729206</v>
+      </c>
+      <c r="L32" s="20">
+        <v>53.828258174963707</v>
+      </c>
+      <c r="M32" s="20">
+        <v>57.173936148198322</v>
+      </c>
+      <c r="N32" s="20">
+        <v>60.519614121432937</v>
+      </c>
+      <c r="O32" s="20">
+        <v>63.865292094667552</v>
+      </c>
+      <c r="P32" s="20">
+        <v>67.210970067902053</v>
+      </c>
+      <c r="Q32" s="20">
+        <v>70.556648041136555</v>
+      </c>
+      <c r="R32" s="20">
+        <v>73.90232601437117</v>
+      </c>
+      <c r="S32" s="20">
+        <v>77.248003987605784</v>
+      </c>
+      <c r="T32" s="20">
+        <v>80.593681960840399</v>
+      </c>
+      <c r="U32" s="20">
+        <v>83.939359934075014</v>
+      </c>
+    </row>
+    <row r="33" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I33" s="19"/>
+      <c r="J33" s="20">
+        <v>120</v>
+      </c>
+      <c r="K33" s="20">
+        <v>36.721112311821003</v>
+      </c>
+      <c r="L33" s="20">
+        <v>40.066790285055504</v>
+      </c>
+      <c r="M33" s="20">
+        <v>43.412468258290005</v>
+      </c>
+      <c r="N33" s="20">
+        <v>46.75814623152462</v>
+      </c>
+      <c r="O33" s="20">
+        <v>50.103824204759235</v>
+      </c>
+      <c r="P33" s="20">
+        <v>53.44950217799385</v>
+      </c>
+      <c r="Q33" s="20">
+        <v>56.795180151228351</v>
+      </c>
+      <c r="R33" s="20">
+        <v>60.140858124462966</v>
+      </c>
+      <c r="S33" s="20">
+        <v>63.486536097697581</v>
+      </c>
+      <c r="T33" s="20">
+        <v>66.832214070932082</v>
+      </c>
+      <c r="U33" s="20">
+        <v>70.177892044166697</v>
+      </c>
+    </row>
+    <row r="34" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I34" s="19"/>
+      <c r="J34" s="21">
+        <v>140</v>
+      </c>
+      <c r="K34" s="21">
+        <v>22.959644421912685</v>
+      </c>
+      <c r="L34" s="21">
+        <v>26.305322395147186</v>
+      </c>
+      <c r="M34" s="21">
+        <v>29.651000368381801</v>
+      </c>
+      <c r="N34" s="21">
+        <v>32.996678341616416</v>
+      </c>
+      <c r="O34" s="21">
+        <v>36.342356314851031</v>
+      </c>
+      <c r="P34" s="21">
+        <v>39.688034288085532</v>
+      </c>
+      <c r="Q34" s="21">
+        <v>43.033712261320034</v>
+      </c>
+      <c r="R34" s="21">
+        <v>46.379390234554648</v>
+      </c>
+      <c r="S34" s="21">
+        <v>49.725068207789263</v>
+      </c>
+      <c r="T34" s="21">
+        <v>53.070746181023878</v>
+      </c>
+      <c r="U34" s="21">
+        <v>56.416424154258493</v>
       </c>
     </row>
   </sheetData>
@@ -5840,7 +6202,7 @@
       <c r="I12" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" t="s">
         <v>48</v>
       </c>
       <c r="L12">
@@ -5874,31 +6236,31 @@
       <c r="I13" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" t="s">
         <v>53</v>
       </c>
       <c r="L13">
-        <f>C19</f>
+        <f t="shared" ref="L13:Q13" si="3">C19</f>
         <v>10</v>
       </c>
       <c r="M13">
-        <f>D19</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="N13">
-        <f>E19</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="O13">
-        <f>F19</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="P13">
-        <f>G19</f>
+        <f t="shared" si="3"/>
         <v>-9</v>
       </c>
       <c r="Q13">
-        <f>H19</f>
+        <f t="shared" si="3"/>
         <v>-93</v>
       </c>
     </row>
@@ -5906,7 +6268,7 @@
       <c r="I14" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" t="s">
         <v>54</v>
       </c>
       <c r="K14">
@@ -5943,35 +6305,35 @@
       <c r="I15" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="5">
-        <f>K12-K13+K14</f>
+      <c r="K15" s="3">
+        <f t="shared" ref="K15:Q15" si="4">K12-K13+K14</f>
         <v>-540</v>
       </c>
-      <c r="L15" s="5">
-        <f>L12-L13+L14</f>
+      <c r="L15" s="3">
+        <f t="shared" si="4"/>
         <v>-20</v>
       </c>
-      <c r="M15" s="5">
-        <f>M12-M13+M14</f>
+      <c r="M15" s="3">
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="N15" s="5">
-        <f>N12-N13+N14</f>
+      <c r="N15" s="3">
+        <f t="shared" si="4"/>
         <v>167.5</v>
       </c>
-      <c r="O15" s="5">
-        <f>O12-O13+O14</f>
+      <c r="O15" s="3">
+        <f t="shared" si="4"/>
         <v>224</v>
       </c>
-      <c r="P15" s="5">
-        <f>P12-P13+P14</f>
+      <c r="P15" s="3">
+        <f t="shared" si="4"/>
         <v>216.5</v>
       </c>
-      <c r="Q15" s="5">
-        <f>Q12-Q13+Q14</f>
+      <c r="Q15" s="3">
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
     </row>
@@ -6036,23 +6398,23 @@
         <v>-560</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:Q17" si="3">L17+M15</f>
+        <f t="shared" ref="M17:Q17" si="5">L17+M15</f>
         <v>-505</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-337.5</v>
       </c>
-      <c r="O17" s="6">
-        <f t="shared" si="3"/>
+      <c r="O17" s="4">
+        <f t="shared" si="5"/>
         <v>-113.5</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>396</v>
       </c>
     </row>
@@ -6086,27 +6448,27 @@
         <v>52</v>
       </c>
       <c r="C19">
-        <f>C18-B18</f>
+        <f t="shared" ref="C19:H19" si="6">C18-B18</f>
         <v>10</v>
       </c>
       <c r="D19">
-        <f>D18-C18</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="E19">
-        <f>E18-D18</f>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="F19">
-        <f>F18-E18</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="G19">
-        <f>G18-F18</f>
+        <f t="shared" si="6"/>
         <v>-9</v>
       </c>
       <c r="H19">
-        <f>H18-G18</f>
+        <f t="shared" si="6"/>
         <v>-93</v>
       </c>
       <c r="J19" t="s">
@@ -6121,7 +6483,7 @@
       <c r="J20" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="5">
         <f>NPV(B13,L15:Q15)+K15</f>
         <v>91.38822787448396</v>
       </c>
@@ -6134,7 +6496,7 @@
       <c r="J21" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <f>IRR(K15:Q15)</f>
         <v>0.12863084137941239</v>
       </c>
